--- a/data/trans_orig/P14A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CDE292-11DE-44E1-9F5D-51AC495C3AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9C98BB-A557-4624-BD7A-466E41637D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04A2B15E-3FCC-46BE-B235-2F13C3BA4DFD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49971AC3-FFC7-4926-8E0E-59E77991557B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="315">
   <si>
     <t>Población que recibe medicación o terapia por colesterol alto en 2012 (Tasa respuesta: 12,28%)</t>
   </si>
@@ -84,55 +84,55 @@
     <t>93,72%</t>
   </si>
   <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,7 +144,7 @@
     <t>94,04%</t>
   </si>
   <si>
-    <t>81,7%</t>
+    <t>81,95%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -153,16 +153,16 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>90,9%</t>
+    <t>88,67%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -171,22 +171,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,3%</t>
+    <t>18,05%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>9,1%</t>
+    <t>11,33%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -195,55 +195,55 @@
     <t>83,71%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -252,55 +252,55 @@
     <t>87,59%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>83,75%</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -309,55 +309,49 @@
     <t>92,06%</t>
   </si>
   <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -366,55 +360,49 @@
     <t>89,28%</t>
   </si>
   <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>86,03%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>13,97%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -423,103 +411,109 @@
     <t>81,87%</t>
   </si>
   <si>
-    <t>71,28%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>28,72%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>88,62%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -531,451 +525,463 @@
     <t>63,82%</t>
   </si>
   <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>68,77%</t>
   </si>
   <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
   </si>
   <si>
     <t>31,23%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77F1805-2CB8-4DA4-94C0-43310F98E09B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB2FCAD-F2D2-469F-9358-60F8C508DF29}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2271,10 +2277,10 @@
         <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -2283,13 +2289,13 @@
         <v>38535</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -2298,13 +2304,13 @@
         <v>73651</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2325,13 @@
         <v>3029</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2334,13 +2340,13 @@
         <v>5005</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2349,13 +2355,13 @@
         <v>8034</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,7 +2417,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2423,13 +2429,13 @@
         <v>66572</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -2438,13 +2444,13 @@
         <v>73269</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -2453,13 +2459,13 @@
         <v>139841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2480,13 @@
         <v>7995</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2489,13 +2495,13 @@
         <v>5064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2504,13 +2510,13 @@
         <v>13059</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,7 +2572,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2578,13 +2584,13 @@
         <v>53754</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -2593,13 +2599,13 @@
         <v>83137</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -2608,13 +2614,13 @@
         <v>136891</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2635,13 @@
         <v>11901</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -2644,13 +2650,13 @@
         <v>11672</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -2659,13 +2665,13 @@
         <v>23573</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2739,13 @@
         <v>342220</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>399</v>
@@ -2748,13 +2754,13 @@
         <v>434611</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>706</v>
@@ -2763,13 +2769,13 @@
         <v>776831</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2790,13 @@
         <v>45403</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -2799,13 +2805,13 @@
         <v>54304</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>93</v>
@@ -2814,13 +2820,13 @@
         <v>99707</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,7 +2882,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E85684-20F6-4731-A78B-3C59098A3E83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E7AF3F-EF2D-492F-B3FE-87B641E44FD1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2917,7 +2923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3024,13 +3030,13 @@
         <v>23809</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3039,13 +3045,13 @@
         <v>29115</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -3054,13 +3060,13 @@
         <v>52925</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3081,13 @@
         <v>13497</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3090,13 +3096,13 @@
         <v>10537</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3105,13 +3111,13 @@
         <v>24033</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3185,13 @@
         <v>53659</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -3194,13 +3200,13 @@
         <v>67488</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -3209,13 +3215,13 @@
         <v>121146</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3236,13 @@
         <v>4009</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3245,13 +3251,13 @@
         <v>6579</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3260,13 +3266,13 @@
         <v>10588</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3680,13 @@
         <v>54714</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3701,13 @@
         <v>957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3710,13 +3716,13 @@
         <v>3958</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3725,13 +3731,13 @@
         <v>4915</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,10 +3805,10 @@
         <v>25351</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>36</v>
@@ -3814,13 +3820,13 @@
         <v>22028</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -3829,13 +3835,13 @@
         <v>47379</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3856,13 @@
         <v>2005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3865,13 +3871,13 @@
         <v>7369</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -3880,13 +3886,13 @@
         <v>9374</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,7 +3948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3954,13 +3960,13 @@
         <v>59582</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -3969,13 +3975,13 @@
         <v>58310</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -3984,13 +3990,13 @@
         <v>117891</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4011,13 @@
         <v>12480</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -4020,13 +4026,13 @@
         <v>14257</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -4035,13 +4041,13 @@
         <v>26737</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4103,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4109,13 +4115,13 @@
         <v>63874</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -4124,13 +4130,13 @@
         <v>95308</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -4139,13 +4145,13 @@
         <v>159183</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4166,13 @@
         <v>15564</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -4175,13 +4181,13 @@
         <v>19920</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -4190,13 +4196,13 @@
         <v>35484</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4270,13 @@
         <v>333525</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -4279,7 +4285,7 @@
         <v>394687</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>301</v>
@@ -4318,10 +4324,10 @@
         <v>306</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>66</v>
@@ -4330,13 +4336,13 @@
         <v>74651</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>115</v>
@@ -4345,13 +4351,13 @@
         <v>129924</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,7 +4413,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A04-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9C98BB-A557-4624-BD7A-466E41637D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AB6C73-003E-4C5C-BF6D-DF5E872BFC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49971AC3-FFC7-4926-8E0E-59E77991557B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93697072-8164-422B-81F1-0751FE2F182E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="305">
   <si>
     <t>Población que recibe medicación o terapia por colesterol alto en 2012 (Tasa respuesta: 12,28%)</t>
   </si>
@@ -84,904 +84,874 @@
     <t>93,72%</t>
   </si>
   <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por colesterol alto en 2016 (Tasa respuesta: 12,06%)</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por colesterol alto en 2015 (Tasa respuesta: 12,06%)</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>25,76%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>89,17%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>10,83%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB2FCAD-F2D2-469F-9358-60F8C508DF29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188A9D1E-7B54-4E95-A0A6-603EC63EBDAA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2277,10 +2247,10 @@
         <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -2289,13 +2259,13 @@
         <v>38535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -2304,13 +2274,13 @@
         <v>73651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2295,13 @@
         <v>3029</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2340,13 +2310,13 @@
         <v>5005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2355,13 +2325,13 @@
         <v>8034</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,7 +2387,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2429,13 +2399,13 @@
         <v>66572</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -2444,13 +2414,13 @@
         <v>73269</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -2459,13 +2429,13 @@
         <v>139841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2450,13 @@
         <v>7995</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2513,7 +2483,7 @@
         <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>121</v>
@@ -2906,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E7AF3F-EF2D-492F-B3FE-87B641E44FD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901D74A3-EE30-4F8B-8A5C-568F9DCF2646}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3066,7 +3036,7 @@
         <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3051,13 @@
         <v>13497</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3096,13 +3066,13 @@
         <v>10537</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3111,13 +3081,13 @@
         <v>24033</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3155,13 @@
         <v>53659</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -3200,13 +3170,13 @@
         <v>67488</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -3215,13 +3185,13 @@
         <v>121146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3206,13 @@
         <v>4009</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3251,13 +3221,13 @@
         <v>6579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3266,13 +3236,13 @@
         <v>10588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,10 +3310,10 @@
         <v>38761</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>36</v>
@@ -3355,13 +3325,13 @@
         <v>45996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -3370,13 +3340,13 @@
         <v>84757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3361,13 @@
         <v>2345</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3406,13 +3376,13 @@
         <v>3864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3421,13 +3391,13 @@
         <v>6209</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3465,13 @@
         <v>42052</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -3510,13 +3480,13 @@
         <v>48166</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -3525,13 +3495,13 @@
         <v>90218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3516,13 @@
         <v>4415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3561,13 +3531,13 @@
         <v>8167</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3576,13 +3546,13 @@
         <v>12583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,10 +3620,10 @@
         <v>26438</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3665,13 +3635,13 @@
         <v>28276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -3680,13 +3650,13 @@
         <v>54714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3671,13 @@
         <v>957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3716,13 +3686,13 @@
         <v>3958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3731,13 +3701,13 @@
         <v>4915</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,10 +3775,10 @@
         <v>25351</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>36</v>
@@ -3820,13 +3790,13 @@
         <v>22028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -3835,13 +3805,13 @@
         <v>47379</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3826,13 @@
         <v>2005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3871,13 +3841,13 @@
         <v>7369</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -3886,13 +3856,13 @@
         <v>9374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3918,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3960,13 +3930,13 @@
         <v>59582</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -3975,13 +3945,13 @@
         <v>58310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -3990,13 +3960,13 @@
         <v>117891</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +3981,13 @@
         <v>12480</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -4026,13 +3996,13 @@
         <v>14257</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -4041,13 +4011,13 @@
         <v>26737</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4085,13 @@
         <v>63874</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -4130,13 +4100,13 @@
         <v>95308</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -4145,13 +4115,13 @@
         <v>159183</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4136,13 @@
         <v>15564</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -4181,13 +4151,13 @@
         <v>19920</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -4196,13 +4166,13 @@
         <v>35484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4240,13 @@
         <v>333525</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>57</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -4285,13 +4255,13 @@
         <v>394687</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M28" s="7">
         <v>677</v>
@@ -4300,13 +4270,13 @@
         <v>728212</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4291,13 @@
         <v>55273</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="H29" s="7">
         <v>66</v>
@@ -4336,13 +4306,13 @@
         <v>74651</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M29" s="7">
         <v>115</v>
@@ -4351,13 +4321,13 @@
         <v>129924</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
